--- a/high_level_plan.xlsx
+++ b/high_level_plan.xlsx
@@ -76,30 +76,26 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Udacity discussion for the System Integration project:
+https://discussions.udacity.com/c/nd013-system-integration
+Slack channel:
+#p-system-integration
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://discussions.udacity.com/c/nd013-system-integration
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-Slack channel:
+Slack channel: 
 #p-system-integration</t>
     </r>
   </si>
@@ -142,6 +138,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Great Udacity discussions on the same:
  </t>
@@ -152,6 +149,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://discussions.udacity.com/t/survey-traffic-lights/342249/31
 https://discussions.udacity.com/t/labeling-images-for-classification/414072/14
@@ -162,6 +160,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 Tensor Flow relevant links:
@@ -174,6 +173,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.tensorflow.org/tutorials/image_retraining
 </t>
@@ -183,6 +183,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Object Detector API: 
 </t>
@@ -193,6 +194,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://towardsdatascience.com/how-to-train-your-own-object</t>
     </r>
@@ -201,6 +203,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-detector-with-tensorflows-object-detector-api-bec72ecfe1d9</t>
     </r>
@@ -218,7 +221,7 @@
     <t xml:space="preserve">Test its able to publish on ROS channels</t>
   </si>
   <si>
-    <t xml:space="preserve">Stun to test locally</t>
+    <t xml:space="preserve">Stub to test locally</t>
   </si>
   <si>
     <t xml:space="preserve">A local dummy, which can publish on channels in a hard coded way. So that we can test car stopping properly at signals.</t>
@@ -263,6 +266,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,12 +288,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,17 +340,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -370,45 +388,45 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.2397959183674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
@@ -421,7 +439,7 @@
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -439,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
@@ -449,31 +467,32 @@
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="3" t="s">
+    <row r="8" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -482,7 +501,7 @@
       <c r="B12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -493,21 +512,21 @@
       <c r="B13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -518,7 +537,7 @@
       <c r="B15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -527,7 +546,7 @@
       <c r="B16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -536,7 +555,7 @@
       <c r="B17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -547,12 +566,12 @@
       <c r="B18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="3"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -561,12 +580,12 @@
       <c r="B20" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="3"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -575,7 +594,7 @@
       <c r="B22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -586,12 +605,12 @@
       <c r="B23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="3"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -600,7 +619,7 @@
       <c r="B25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -609,7 +628,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="https://discussions.udacity.com/c/nd013-system-integration"/>
+    <hyperlink ref="C8" r:id="rId1" display="Udacity discussion for the System Integration project:&#10;https://discussions.udacity.com/c/nd013-system-integration&#10;&#10;Slack channel:&#10;#p-system-integration"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/high_level_plan.xlsx
+++ b/high_level_plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t xml:space="preserve">Capstone project by ‘The Distracted’</t>
   </si>
@@ -73,31 +73,12 @@
     <t xml:space="preserve">It may need 1 person. But differnt time zones can be utilized for better productivity</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Udacity discussion for the System Integration project:
+    <t xml:space="preserve">Udacity discussion for the System Integration project:
 https://discussions.udacity.com/c/nd013-system-integration
 Slack channel:
 #p-system-integration
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
 Slack channel: 
 #p-system-integration</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Tasks</t>
@@ -113,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">Acquiring data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perceptiion</t>
   </si>
   <si>
     <t xml:space="preserve">Deciding on what data to use. Surveying the existing literature and work</t>
@@ -233,7 +211,7 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t xml:space="preserve">Since we need some GPUs which are typically not available locally. We need to use an p2 instance and setup an AMI, with appropriate software.</t>
+    <t xml:space="preserve">Since we need some GPUs which are typically not available locally. We need to use a p2 instance and setup an AMI, with appropriate software.</t>
   </si>
   <si>
     <t xml:space="preserve">Updater (partial)</t>
@@ -388,18 +366,17 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.0816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,6 +385,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
+      <c r="E1" s="0"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -456,6 +434,7 @@
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -474,10 +453,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="0"/>
+    </row>
     <row r="8" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -499,89 +485,89 @@
         <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,24 +575,24 @@
     </row>
     <row r="22" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,13 +600,13 @@
     </row>
     <row r="25" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +614,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="Udacity discussion for the System Integration project:&#10;https://discussions.udacity.com/c/nd013-system-integration&#10;&#10;Slack channel:&#10;#p-system-integration"/>
+    <hyperlink ref="C8" r:id="rId1" display="Udacity discussion for the System Integration project:&#10;https://discussions.udacity.com/c/nd013-system-integration&#10;&#10;Slack channel:&#10;#p-system-integration&#10;&#10;Slack channel: &#10;#p-system-integration"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/high_level_plan.xlsx
+++ b/high_level_plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t xml:space="preserve">Capstone project by ‘The Distracted’</t>
   </si>
@@ -229,7 +229,22 @@
     <t xml:space="preserve">PID controller</t>
   </si>
   <si>
+    <t xml:space="preserve">Control – DBW Node</t>
+  </si>
+  <si>
     <t xml:space="preserve">The PID constants using Twiddle/etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twist controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the main thing which needs to be coded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBW Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoke Twist Controller and call publish</t>
   </si>
 </sst>
 </file>
@@ -364,10 +379,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C26 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -603,10 +618,32 @@
         <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
